--- a/QA/testcases/EDockets/CASE/Creating_Case_Title.xlsx
+++ b/QA/testcases/EDockets/CASE/Creating_Case_Title.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="178">
   <si>
     <t>Step No</t>
   </si>
@@ -423,12 +423,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Type Product name</t>
-  </si>
-  <si>
-    <t>Product name must be typed</t>
-  </si>
-  <si>
     <t>ClickSaveButton</t>
   </si>
   <si>
@@ -493,13 +487,85 @@
   </si>
   <si>
     <t>16,33</t>
+  </si>
+  <si>
+    <t>babu@edocketspro.com,America1*</t>
+  </si>
+  <si>
+    <t>Retrieve Client id</t>
+  </si>
+  <si>
+    <t>Client id should be retrieved</t>
+  </si>
+  <si>
+    <t>Matter id should be retrieved</t>
+  </si>
+  <si>
+    <t>Retrieve Matter id</t>
+  </si>
+  <si>
+    <t>Switch to default content</t>
+  </si>
+  <si>
+    <t>Should be switched to Default content</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details page</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details page</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details Content</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details Content</t>
+  </si>
+  <si>
+    <t>Type Client  id</t>
+  </si>
+  <si>
+    <t>Client id should be typed</t>
+  </si>
+  <si>
+    <t>Click on Open button</t>
+  </si>
+  <si>
+    <t>Open button should be clicked</t>
+  </si>
+  <si>
+    <t>Switch to Main window</t>
+  </si>
+  <si>
+    <t>Should be switched to Main window</t>
+  </si>
+  <si>
+    <t>Click on save button</t>
+  </si>
+  <si>
+    <t>Type Case Title</t>
+  </si>
+  <si>
+    <t>Case title should be typed</t>
+  </si>
+  <si>
+    <t>Split the details</t>
+  </si>
+  <si>
+    <t>Details should be splitted</t>
+  </si>
+  <si>
+    <t>Check strings are matched</t>
+  </si>
+  <si>
+    <t>Strings should be matched</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +585,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,6 +606,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,10 +653,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -592,8 +676,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -973,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,12 +1147,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1084,7 +1172,7 @@
         <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1259,10 +1347,10 @@
         <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1277,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
         <v>141</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>143</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1298,7 +1386,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1313,7 +1407,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1322,16 +1422,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>123</v>
@@ -1368,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
         <v>122</v>
@@ -1405,6 +1505,12 @@
         <v>70</v>
       </c>
       <c r="D22" s="7"/>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
@@ -1479,7 +1585,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
       </c>
       <c r="H26" s="2">
         <v>14</v>
@@ -1496,7 +1608,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>168</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1527,6 +1645,12 @@
         <v>71</v>
       </c>
       <c r="D29" s="8"/>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
@@ -1540,7 +1664,13 @@
         <v>31</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
       </c>
       <c r="H30" s="2">
         <v>14</v>
@@ -1557,7 +1687,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1572,7 +1708,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1587,11 +1729,15 @@
         <v>9</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
@@ -1605,7 +1751,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -1633,9 +1785,15 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D36" s="8"/>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" t="s">
+        <v>175</v>
+      </c>
       <c r="H36" s="9">
         <v>29</v>
       </c>
@@ -1649,10 +1807,14 @@
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" t="s">
+        <v>177</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1663,8 +1825,14 @@
         <v>37</v>
       </c>
       <c r="D38" s="13"/>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
       <c r="H38" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1677,10 +1845,14 @@
       <c r="C39" s="3"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" t="s">
+        <v>177</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1694,11 +1866,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
